--- a/software/changed.xlsx
+++ b/software/changed.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="138">
   <si>
     <t>IDNO</t>
   </si>
@@ -35,52 +35,55 @@
     <t>Aaradhya Sharma</t>
   </si>
   <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>22STUJPBC0002</t>
+  </si>
+  <si>
+    <t>Abhishek Sharma</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>22STUJPBC0003</t>
+  </si>
+  <si>
+    <t>Ajay Shersiya</t>
+  </si>
+  <si>
+    <t>22STUJPBC0004</t>
+  </si>
+  <si>
+    <t>Akshita Medda</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>22STUJPBC0005</t>
+  </si>
+  <si>
+    <t>Akshat Gupta</t>
+  </si>
+  <si>
     <t>C</t>
   </si>
   <si>
-    <t>22STUJPBC0002</t>
-  </si>
-  <si>
-    <t>Abhishek Sharma</t>
+    <t>22STUJPBC0006</t>
+  </si>
+  <si>
+    <t>Aman Sharma</t>
+  </si>
+  <si>
+    <t>22STUJPBC0007</t>
+  </si>
+  <si>
+    <t>Anish Tamboli</t>
   </si>
   <si>
     <t>E</t>
-  </si>
-  <si>
-    <t>22STUJPBC0003</t>
-  </si>
-  <si>
-    <t>Ajay Shersiya</t>
-  </si>
-  <si>
-    <t>22STUJPBC0004</t>
-  </si>
-  <si>
-    <t>Akshita Medda</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>22STUJPBC0005</t>
-  </si>
-  <si>
-    <t>Akshat Gupta</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>22STUJPBC0006</t>
-  </si>
-  <si>
-    <t>Aman Sharma</t>
-  </si>
-  <si>
-    <t>22STUJPBC0007</t>
-  </si>
-  <si>
-    <t>Anish Tamboli</t>
   </si>
   <si>
     <t>22STUJPBC0008</t>
@@ -882,15 +885,15 @@
         <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9">
         <v>26</v>
@@ -901,24 +904,24 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10">
         <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11">
         <v>63</v>
@@ -929,10 +932,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12">
         <v>38</v>
@@ -943,10 +946,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C13">
         <v>38</v>
@@ -957,10 +960,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C14">
         <v>40</v>
@@ -971,10 +974,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15">
         <v>43</v>
@@ -985,52 +988,52 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C16">
         <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C17">
         <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C18">
         <v>56</v>
       </c>
       <c r="D18" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C19">
         <v>43</v>
@@ -1041,10 +1044,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C20">
         <v>48</v>
@@ -1055,10 +1058,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C21">
         <v>37</v>
@@ -1069,10 +1072,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C22">
         <v>28</v>
@@ -1083,10 +1086,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C23">
         <v>32</v>
@@ -1097,10 +1100,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C24">
         <v>39</v>
@@ -1111,10 +1114,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C25">
         <v>27</v>
@@ -1125,35 +1128,38 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C26">
         <v>73</v>
       </c>
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C27">
         <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C28">
         <v>42</v>
@@ -1164,21 +1170,24 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B29" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C29">
         <v>72</v>
       </c>
+      <c r="D29" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B30" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C30">
         <v>93</v>
@@ -1189,10 +1198,10 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B31" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C31">
         <v>36</v>
@@ -1203,10 +1212,10 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B32" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C32">
         <v>91</v>
@@ -1217,49 +1226,49 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B33" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C33">
         <v>53</v>
       </c>
       <c r="D33" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B34" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C34">
         <v>16</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B35" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C35" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B36" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C36">
         <v>88</v>
@@ -1270,10 +1279,10 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B37" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C37">
         <v>47</v>
@@ -1284,24 +1293,24 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B38" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C38">
         <v>16</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B39" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C39">
         <v>24</v>
@@ -1312,10 +1321,10 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B40" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C40">
         <v>60</v>
@@ -1326,10 +1335,10 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B41" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C41">
         <v>35</v>
@@ -1340,10 +1349,10 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B42" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C42">
         <v>25</v>
@@ -1354,10 +1363,10 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B43" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C43">
         <v>36</v>
@@ -1368,49 +1377,52 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B44" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C44">
         <v>79</v>
       </c>
+      <c r="D44" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B45" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C45">
         <v>11</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B46" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C46">
         <v>16</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B47" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C47">
         <v>41</v>
@@ -1421,10 +1433,10 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B48" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C48">
         <v>83</v>
@@ -1435,10 +1447,10 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B49" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C49">
         <v>40</v>
@@ -1449,10 +1461,10 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B50" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C50">
         <v>60</v>
@@ -1463,52 +1475,52 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B51" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C51">
         <v>50</v>
       </c>
       <c r="D51" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B52" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C52">
         <v>54</v>
       </c>
       <c r="D52" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B53" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C53">
         <v>58</v>
       </c>
       <c r="D53" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B54" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C54">
         <v>21</v>
@@ -1519,10 +1531,10 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B55" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C55">
         <v>49</v>
@@ -1533,10 +1545,10 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B56" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C56">
         <v>90</v>
@@ -1547,10 +1559,10 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B57" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C57">
         <v>69</v>
@@ -1561,10 +1573,10 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B58" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C58">
         <v>49</v>
@@ -1575,10 +1587,10 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B59" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C59">
         <v>21</v>
@@ -1589,21 +1601,24 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B60" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C60">
         <v>79</v>
       </c>
+      <c r="D60" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B61" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C61">
         <v>87</v>
@@ -1614,10 +1629,10 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B62" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C62">
         <v>62</v>
@@ -1628,21 +1643,21 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B63" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C63" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B64" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C64">
         <v>45</v>
@@ -1653,13 +1668,16 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B65" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C65">
         <v>9</v>
+      </c>
+      <c r="D65" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/software/changed.xlsx
+++ b/software/changed.xlsx
@@ -1676,9 +1676,6 @@
       <c r="C65">
         <v>9</v>
       </c>
-      <c r="D65" t="s">
-        <v>22</v>
-      </c>
     </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>

--- a/software/changed.xlsx
+++ b/software/changed.xlsx
@@ -35,163 +35,163 @@
     <t>Aaradhya Sharma</t>
   </si>
   <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>22STUJPBC0002</t>
+  </si>
+  <si>
+    <t>Abhishek Sharma</t>
+  </si>
+  <si>
+    <t>22STUJPBC0003</t>
+  </si>
+  <si>
+    <t>Ajay Shersiya</t>
+  </si>
+  <si>
+    <t>22STUJPBC0004</t>
+  </si>
+  <si>
+    <t>Akshita Medda</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>22STUJPBC0005</t>
+  </si>
+  <si>
+    <t>Akshat Gupta</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>22STUJPBC0006</t>
+  </si>
+  <si>
+    <t>Aman Sharma</t>
+  </si>
+  <si>
+    <t>22STUJPBC0007</t>
+  </si>
+  <si>
+    <t>Anish Tamboli</t>
+  </si>
+  <si>
+    <t>22STUJPBC0008</t>
+  </si>
+  <si>
+    <t>Arun Singh</t>
+  </si>
+  <si>
+    <t>22STUJPBC0009</t>
+  </si>
+  <si>
+    <t>Ashutosh Gurjar</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>22STUJPBC0010</t>
+  </si>
+  <si>
+    <t>Deepak Kumar Sharma</t>
+  </si>
+  <si>
+    <t>22STUJPBC0011</t>
+  </si>
+  <si>
+    <t>Gauresh Sharma</t>
+  </si>
+  <si>
+    <t>22STUJPBC0012</t>
+  </si>
+  <si>
+    <t>Guddu Yadav</t>
+  </si>
+  <si>
+    <t>22STUJPBC0013</t>
+  </si>
+  <si>
+    <t>Gulshan Kumar Bairwa</t>
+  </si>
+  <si>
+    <t>22STUJPBC0014</t>
+  </si>
+  <si>
+    <t>Himanshu Puri</t>
+  </si>
+  <si>
+    <t>22STUJPBC0015</t>
+  </si>
+  <si>
+    <t>Jeetu Prajapat</t>
+  </si>
+  <si>
+    <t>22STUJPBC0016</t>
+  </si>
+  <si>
+    <t>Jitendra Kumar Saini</t>
+  </si>
+  <si>
+    <t>22STUJPBC0017</t>
+  </si>
+  <si>
+    <t>Kamlesh Sharma</t>
+  </si>
+  <si>
+    <t>22STUJPBC0018</t>
+  </si>
+  <si>
+    <t>Krishan Kumar Khandelwal</t>
+  </si>
+  <si>
+    <t>22STUJPBC0019</t>
+  </si>
+  <si>
+    <t>Kuldeep Bairwa</t>
+  </si>
+  <si>
+    <t>22STUJPBC0020</t>
+  </si>
+  <si>
+    <t>Kushal Khandelwal</t>
+  </si>
+  <si>
+    <t>22STUJPBC0021</t>
+  </si>
+  <si>
+    <t>Lokesh Kumar Meena</t>
+  </si>
+  <si>
+    <t>22STUJPBC0022</t>
+  </si>
+  <si>
+    <t>Lokesh Mahawar</t>
+  </si>
+  <si>
+    <t>22STUJPBC0023</t>
+  </si>
+  <si>
+    <t>Mohit Sharma</t>
+  </si>
+  <si>
+    <t>22STUJPBC0024</t>
+  </si>
+  <si>
+    <t>Mukund Sharma</t>
+  </si>
+  <si>
+    <t>22STUJPBC0025</t>
+  </si>
+  <si>
+    <t>Nikhil Sharma</t>
+  </si>
+  <si>
     <t>B</t>
-  </si>
-  <si>
-    <t>22STUJPBC0002</t>
-  </si>
-  <si>
-    <t>Abhishek Sharma</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>22STUJPBC0003</t>
-  </si>
-  <si>
-    <t>Ajay Shersiya</t>
-  </si>
-  <si>
-    <t>22STUJPBC0004</t>
-  </si>
-  <si>
-    <t>Akshita Medda</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>22STUJPBC0005</t>
-  </si>
-  <si>
-    <t>Akshat Gupta</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>22STUJPBC0006</t>
-  </si>
-  <si>
-    <t>Aman Sharma</t>
-  </si>
-  <si>
-    <t>22STUJPBC0007</t>
-  </si>
-  <si>
-    <t>Anish Tamboli</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>22STUJPBC0008</t>
-  </si>
-  <si>
-    <t>Arun Singh</t>
-  </si>
-  <si>
-    <t>22STUJPBC0009</t>
-  </si>
-  <si>
-    <t>Ashutosh Gurjar</t>
-  </si>
-  <si>
-    <t>22STUJPBC0010</t>
-  </si>
-  <si>
-    <t>Deepak Kumar Sharma</t>
-  </si>
-  <si>
-    <t>22STUJPBC0011</t>
-  </si>
-  <si>
-    <t>Gauresh Sharma</t>
-  </si>
-  <si>
-    <t>22STUJPBC0012</t>
-  </si>
-  <si>
-    <t>Guddu Yadav</t>
-  </si>
-  <si>
-    <t>22STUJPBC0013</t>
-  </si>
-  <si>
-    <t>Gulshan Kumar Bairwa</t>
-  </si>
-  <si>
-    <t>22STUJPBC0014</t>
-  </si>
-  <si>
-    <t>Himanshu Puri</t>
-  </si>
-  <si>
-    <t>22STUJPBC0015</t>
-  </si>
-  <si>
-    <t>Jeetu Prajapat</t>
-  </si>
-  <si>
-    <t>22STUJPBC0016</t>
-  </si>
-  <si>
-    <t>Jitendra Kumar Saini</t>
-  </si>
-  <si>
-    <t>22STUJPBC0017</t>
-  </si>
-  <si>
-    <t>Kamlesh Sharma</t>
-  </si>
-  <si>
-    <t>22STUJPBC0018</t>
-  </si>
-  <si>
-    <t>Krishan Kumar Khandelwal</t>
-  </si>
-  <si>
-    <t>22STUJPBC0019</t>
-  </si>
-  <si>
-    <t>Kuldeep Bairwa</t>
-  </si>
-  <si>
-    <t>22STUJPBC0020</t>
-  </si>
-  <si>
-    <t>Kushal Khandelwal</t>
-  </si>
-  <si>
-    <t>22STUJPBC0021</t>
-  </si>
-  <si>
-    <t>Lokesh Kumar Meena</t>
-  </si>
-  <si>
-    <t>22STUJPBC0022</t>
-  </si>
-  <si>
-    <t>Lokesh Mahawar</t>
-  </si>
-  <si>
-    <t>22STUJPBC0023</t>
-  </si>
-  <si>
-    <t>Mohit Sharma</t>
-  </si>
-  <si>
-    <t>22STUJPBC0024</t>
-  </si>
-  <si>
-    <t>Mukund Sharma</t>
-  </si>
-  <si>
-    <t>22STUJPBC0025</t>
-  </si>
-  <si>
-    <t>Nikhil Sharma</t>
   </si>
   <si>
     <t>22STUJPBC0026</t>
@@ -814,114 +814,99 @@
       <c r="C3">
         <v>26</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
         <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
       </c>
       <c r="C4">
         <v>31</v>
       </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
         <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
       </c>
       <c r="C5">
         <v>92</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
         <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
       </c>
       <c r="C6">
         <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
         <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
       </c>
       <c r="C7">
         <v>26</v>
       </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
         <v>20</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
       </c>
       <c r="C8">
         <v>19</v>
       </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C9">
         <v>26</v>
       </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10">
         <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
         <v>27</v>
-      </c>
-      <c r="B11" t="s">
-        <v>28</v>
       </c>
       <c r="C11">
         <v>63</v>
@@ -932,212 +917,185 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
         <v>29</v>
-      </c>
-      <c r="B12" t="s">
-        <v>30</v>
       </c>
       <c r="C12">
         <v>38</v>
       </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
         <v>31</v>
-      </c>
-      <c r="B13" t="s">
-        <v>32</v>
       </c>
       <c r="C13">
         <v>38</v>
       </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
         <v>33</v>
-      </c>
-      <c r="B14" t="s">
-        <v>34</v>
       </c>
       <c r="C14">
         <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
         <v>35</v>
-      </c>
-      <c r="B15" t="s">
-        <v>36</v>
       </c>
       <c r="C15">
         <v>43</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
         <v>37</v>
-      </c>
-      <c r="B16" t="s">
-        <v>38</v>
       </c>
       <c r="C16">
         <v>19</v>
       </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" t="s">
         <v>39</v>
-      </c>
-      <c r="B17" t="s">
-        <v>40</v>
       </c>
       <c r="C17">
         <v>14</v>
       </c>
-      <c r="D17" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" t="s">
         <v>41</v>
-      </c>
-      <c r="B18" t="s">
-        <v>42</v>
       </c>
       <c r="C18">
         <v>56</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" t="s">
         <v>43</v>
-      </c>
-      <c r="B19" t="s">
-        <v>44</v>
       </c>
       <c r="C19">
         <v>43</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" t="s">
         <v>45</v>
-      </c>
-      <c r="B20" t="s">
-        <v>46</v>
       </c>
       <c r="C20">
         <v>48</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" t="s">
         <v>47</v>
-      </c>
-      <c r="B21" t="s">
-        <v>48</v>
       </c>
       <c r="C21">
         <v>37</v>
       </c>
-      <c r="D21" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" t="s">
         <v>49</v>
-      </c>
-      <c r="B22" t="s">
-        <v>50</v>
       </c>
       <c r="C22">
         <v>28</v>
       </c>
-      <c r="D22" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" t="s">
         <v>51</v>
-      </c>
-      <c r="B23" t="s">
-        <v>52</v>
       </c>
       <c r="C23">
         <v>32</v>
       </c>
-      <c r="D23" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" t="s">
         <v>53</v>
-      </c>
-      <c r="B24" t="s">
-        <v>54</v>
       </c>
       <c r="C24">
         <v>39</v>
       </c>
-      <c r="D24" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" t="s">
         <v>55</v>
-      </c>
-      <c r="B25" t="s">
-        <v>56</v>
       </c>
       <c r="C25">
         <v>27</v>
       </c>
-      <c r="D25" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" t="s">
         <v>57</v>
-      </c>
-      <c r="B26" t="s">
-        <v>58</v>
       </c>
       <c r="C26">
         <v>73</v>
       </c>
       <c r="D26" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1150,9 +1108,6 @@
       <c r="C27">
         <v>10</v>
       </c>
-      <c r="D27" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
@@ -1165,7 +1120,7 @@
         <v>42</v>
       </c>
       <c r="D28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1179,7 +1134,7 @@
         <v>72</v>
       </c>
       <c r="D29" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1193,7 +1148,7 @@
         <v>93</v>
       </c>
       <c r="D30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1206,9 +1161,6 @@
       <c r="C31">
         <v>36</v>
       </c>
-      <c r="D31" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
@@ -1221,7 +1173,7 @@
         <v>91</v>
       </c>
       <c r="D32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1235,7 +1187,7 @@
         <v>53</v>
       </c>
       <c r="D33" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1248,9 +1200,6 @@
       <c r="C34">
         <v>16</v>
       </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
@@ -1274,7 +1223,7 @@
         <v>88</v>
       </c>
       <c r="D36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1288,7 +1237,7 @@
         <v>47</v>
       </c>
       <c r="D37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1301,9 +1250,6 @@
       <c r="C38">
         <v>16</v>
       </c>
-      <c r="D38" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
@@ -1315,9 +1261,6 @@
       <c r="C39">
         <v>24</v>
       </c>
-      <c r="D39" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
@@ -1343,9 +1286,6 @@
       <c r="C41">
         <v>35</v>
       </c>
-      <c r="D41" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
@@ -1357,9 +1297,6 @@
       <c r="C42">
         <v>25</v>
       </c>
-      <c r="D42" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
@@ -1371,9 +1308,6 @@
       <c r="C43">
         <v>36</v>
       </c>
-      <c r="D43" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
@@ -1386,7 +1320,7 @@
         <v>79</v>
       </c>
       <c r="D44" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1399,9 +1333,6 @@
       <c r="C45">
         <v>11</v>
       </c>
-      <c r="D45" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
@@ -1413,9 +1344,6 @@
       <c r="C46">
         <v>16</v>
       </c>
-      <c r="D46" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
@@ -1428,7 +1356,7 @@
         <v>41</v>
       </c>
       <c r="D47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1442,7 +1370,7 @@
         <v>83</v>
       </c>
       <c r="D48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1456,7 +1384,7 @@
         <v>40</v>
       </c>
       <c r="D49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1484,7 +1412,7 @@
         <v>50</v>
       </c>
       <c r="D51" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1498,7 +1426,7 @@
         <v>54</v>
       </c>
       <c r="D52" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1512,7 +1440,7 @@
         <v>58</v>
       </c>
       <c r="D53" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1525,9 +1453,6 @@
       <c r="C54">
         <v>21</v>
       </c>
-      <c r="D54" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
@@ -1540,7 +1465,7 @@
         <v>49</v>
       </c>
       <c r="D55" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1554,7 +1479,7 @@
         <v>90</v>
       </c>
       <c r="D56" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1582,7 +1507,7 @@
         <v>49</v>
       </c>
       <c r="D58" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1595,9 +1520,6 @@
       <c r="C59">
         <v>21</v>
       </c>
-      <c r="D59" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
@@ -1610,7 +1532,7 @@
         <v>79</v>
       </c>
       <c r="D60" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1624,7 +1546,7 @@
         <v>87</v>
       </c>
       <c r="D61" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1663,7 +1585,7 @@
         <v>45</v>
       </c>
       <c r="D64" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" spans="1:4">
